--- a/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 5/05-01-rounding-values.xlsx
+++ b/normal/Excel 2021 Beginner to Advanced Course Files/Excel 2021 Advanced Course Files/Instructor Files/Section 5/05-01-rounding-values.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f21e54c367d3358c/Documents/01 Work Files/05 SSIT/Online Courses/Excel 2021 Advanced/Course Files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git_Excel_Learning\normal\Excel 2021 Beginner to Advanced Course Files\Excel 2021 Advanced Course Files\Instructor Files\Section 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{8AC6B62D-3C62-4F68-B780-E5AB85757FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD52E24A-5F86-4C9A-8BEF-ADDF0588C5F9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C31B0B-EA78-45DF-89DB-BC2D1963F197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8130" yWindow="1545" windowWidth="14685" windowHeight="12165" xr2:uid="{229B6CAF-F958-48D3-9CAE-22052FBCE6C5}"/>
+    <workbookView xWindow="8988" yWindow="2460" windowWidth="17280" windowHeight="8880" xr2:uid="{229B6CAF-F958-48D3-9CAE-22052FBCE6C5}"/>
   </bookViews>
   <sheets>
     <sheet name="ROUNDING" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Order ID</t>
   </si>
@@ -57,16 +56,26 @@
   <si>
     <t>New Salary</t>
   </si>
+  <si>
+    <t>using round</t>
+  </si>
+  <si>
+    <t>using roundup</t>
+  </si>
+  <si>
+    <t>using rounddown</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +107,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -124,15 +140,18 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -396,31 +415,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{018E06C8-E7E6-45D7-8698-CA7B553F3C55}">
-  <dimension ref="A2:F45"/>
+  <dimension ref="A2:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29:C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
-    <col min="2" max="3" width="14.125" customWidth="1"/>
-    <col min="6" max="6" width="10.25" customWidth="1"/>
-    <col min="8" max="8" width="20.25" customWidth="1"/>
-    <col min="9" max="14" width="6.75" customWidth="1"/>
-    <col min="15" max="15" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14.09765625" customWidth="1"/>
+    <col min="4" max="4" width="14.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.8984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.19921875" customWidth="1"/>
+    <col min="9" max="14" width="6.69921875" customWidth="1"/>
+    <col min="15" max="15" width="5.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="E2" s="1" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,258 +454,506 @@
       <c r="C3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3">
+      <c r="D3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3">
         <v>1000</v>
       </c>
-      <c r="F3" s="3">
+      <c r="I3">
+        <v>1000</v>
+      </c>
+      <c r="J3" s="3">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1000</v>
       </c>
       <c r="B4" s="2">
         <v>4.88</v>
       </c>
-      <c r="C4" s="2">
-        <f>B4*$F$3+B4</f>
+      <c r="C4" s="6">
+        <f>B4*$J$3+B4</f>
         <v>5.0019999999999998</v>
       </c>
+      <c r="D4" s="2">
+        <f>ROUND(B4*$J$3+B4,2)</f>
+        <v>5</v>
+      </c>
       <c r="E4">
-        <f>E3*C4</f>
-        <v>5002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <f>ROUNDUP(B4*$J$3+B4,2)</f>
+        <v>5.01</v>
+      </c>
+      <c r="F4" s="2">
+        <f>ROUNDDOWN(B4*$J$3+B4,2)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1001</v>
       </c>
       <c r="B5" s="2">
         <v>7.1923932497802241</v>
       </c>
-      <c r="C5" s="2">
-        <f t="shared" ref="C5:C23" si="0">B5*$F$3+B5</f>
+      <c r="C5" s="8">
+        <f>B5*$J$3+B5</f>
         <v>7.3722030810247299</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <f>ROUND(B5*$J$3+B5,2)</f>
+        <v>7.37</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E23" si="0">ROUNDUP(B5*$J$3+B5,2)</f>
+        <v>7.38</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F23" si="1">ROUNDDOWN(B5*$J$3+B5,2)</f>
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1002</v>
       </c>
       <c r="B6" s="2">
         <v>6.5097701617166859</v>
       </c>
-      <c r="C6" s="2">
-        <f t="shared" si="0"/>
+      <c r="C6" s="8">
+        <f>B6*$J$3+B6</f>
         <v>6.6725144157596032</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <f>ROUND(B6*$J$3+B6,2)</f>
+        <v>6.67</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>6.68</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>6.67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1003</v>
       </c>
       <c r="B7" s="2">
         <v>7.976103418887277</v>
       </c>
-      <c r="C7" s="2">
-        <f t="shared" si="0"/>
+      <c r="C7" s="8">
+        <f>B7*$J$3+B7</f>
         <v>8.175506004359459</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <f>ROUND(B7*$J$3+B7,2)</f>
+        <v>8.18</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>8.18</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>8.17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1004</v>
       </c>
       <c r="B8" s="2">
         <v>6.0390715695105026</v>
       </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
+      <c r="C8" s="8">
+        <f>B8*$J$3+B8</f>
         <v>6.1900483587482649</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <f>ROUND(B8*$J$3+B8,2)</f>
+        <v>6.19</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>6.2</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>6.19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1005</v>
       </c>
       <c r="B9" s="2">
         <v>5.1429346253266015</v>
       </c>
-      <c r="C9" s="2">
-        <f t="shared" si="0"/>
+      <c r="C9" s="8">
+        <f>B9*$J$3+B9</f>
         <v>5.2715079909597664</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <f>ROUND(B9*$J$3+B9,2)</f>
+        <v>5.27</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>5.2799999999999994</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1006</v>
       </c>
       <c r="B10" s="2">
         <v>5.746561718948648</v>
       </c>
-      <c r="C10" s="2">
-        <f t="shared" si="0"/>
+      <c r="C10" s="8">
+        <f>B10*$J$3+B10</f>
         <v>5.8902257619223644</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <f>ROUND(B10*$J$3+B10,2)</f>
+        <v>5.89</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>5.8999999999999995</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>5.89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1007</v>
       </c>
       <c r="B11" s="2">
         <v>6.4074090086289903</v>
       </c>
-      <c r="C11" s="2">
-        <f t="shared" si="0"/>
+      <c r="C11" s="8">
+        <f>B11*$J$3+B11</f>
         <v>6.5675942338447149</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <f>ROUND(B11*$J$3+B11,2)</f>
+        <v>6.57</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>6.5699999999999994</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>6.56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1008</v>
       </c>
       <c r="B12" s="2">
         <v>6.9959081856237102</v>
       </c>
-      <c r="C12" s="2">
-        <f t="shared" si="0"/>
+      <c r="C12" s="8">
+        <f>B12*$J$3+B12</f>
         <v>7.1708058902643028</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <f>ROUND(B12*$J$3+B12,2)</f>
+        <v>7.17</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>7.18</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1009</v>
       </c>
       <c r="B13" s="2">
         <v>6.4499344659098181</v>
       </c>
-      <c r="C13" s="2">
-        <f t="shared" si="0"/>
+      <c r="C13" s="8">
+        <f>B13*$J$3+B13</f>
         <v>6.6111828275575633</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <f>ROUND(B13*$J$3+B13,2)</f>
+        <v>6.61</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>6.62</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1010</v>
       </c>
       <c r="B14" s="2">
         <v>7.8898660506050149</v>
       </c>
-      <c r="C14" s="2">
-        <f t="shared" si="0"/>
+      <c r="C14" s="8">
+        <f>B14*$J$3+B14</f>
         <v>8.0871127018701401</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <f>ROUND(B14*$J$3+B14,2)</f>
+        <v>8.09</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>8.09</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>8.08</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1011</v>
       </c>
       <c r="B15" s="2">
         <v>7.3859779135895458</v>
       </c>
-      <c r="C15" s="2">
-        <f t="shared" si="0"/>
+      <c r="C15" s="8">
+        <f>B15*$J$3+B15</f>
         <v>7.5706273614292847</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <f>ROUND(B15*$J$3+B15,2)</f>
+        <v>7.57</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>7.58</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>7.57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1012</v>
       </c>
       <c r="B16" s="2">
         <v>7.0731726762059672</v>
       </c>
-      <c r="C16" s="2">
-        <f t="shared" si="0"/>
+      <c r="C16" s="8">
+        <f>B16*$J$3+B16</f>
         <v>7.2500019931111161</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <f>ROUND(B16*$J$3+B16,2)</f>
+        <v>7.25</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>7.26</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1013</v>
       </c>
       <c r="B17" s="2">
         <v>7.7163944878693052</v>
       </c>
-      <c r="C17" s="2">
-        <f t="shared" si="0"/>
+      <c r="C17" s="8">
+        <f>B17*$J$3+B17</f>
         <v>7.909304350066038</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <f>ROUND(B17*$J$3+B17,2)</f>
+        <v>7.91</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>7.91</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1014</v>
       </c>
       <c r="B18" s="2">
         <v>7.4451693227810622</v>
       </c>
-      <c r="C18" s="2">
-        <f t="shared" si="0"/>
+      <c r="C18" s="8">
+        <f>B18*$J$3+B18</f>
         <v>7.6312985558505888</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <f>ROUND(B18*$J$3+B18,2)</f>
+        <v>7.63</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>7.64</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>7.63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1015</v>
       </c>
       <c r="B19" s="2">
         <v>7.8589603854569869</v>
       </c>
-      <c r="C19" s="2">
-        <f t="shared" si="0"/>
+      <c r="C19" s="8">
+        <f>B19*$J$3+B19</f>
         <v>8.0554343950934122</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <f>ROUND(B19*$J$3+B19,2)</f>
+        <v>8.06</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>8.06</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>8.0500000000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1016</v>
       </c>
       <c r="B20" s="2">
         <v>5.6885281218747252</v>
       </c>
-      <c r="C20" s="2">
-        <f t="shared" si="0"/>
+      <c r="C20" s="8">
+        <f>B20*$J$3+B20</f>
         <v>5.8307413249215934</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <f>ROUND(B20*$J$3+B20,2)</f>
+        <v>5.83</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>5.84</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>5.83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1017</v>
       </c>
       <c r="B21" s="2">
         <v>5.1346078877436465</v>
       </c>
-      <c r="C21" s="2">
-        <f t="shared" si="0"/>
+      <c r="C21" s="8">
+        <f>B21*$J$3+B21</f>
         <v>5.2629730849372374</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <f>ROUND(B21*$J$3+B21,2)</f>
+        <v>5.26</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>5.27</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>5.26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1018</v>
       </c>
       <c r="B22" s="2">
         <v>5.1249969235687445</v>
       </c>
-      <c r="C22" s="2">
-        <f t="shared" si="0"/>
+      <c r="C22" s="8">
+        <f>B22*$J$3+B22</f>
         <v>5.2531218466579634</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <f>ROUND(B22*$J$3+B22,2)</f>
+        <v>5.25</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>5.26</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>5.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1019</v>
       </c>
       <c r="B23" s="2">
         <v>5.4323392477410462</v>
       </c>
-      <c r="C23" s="2">
-        <f t="shared" si="0"/>
+      <c r="C23" s="8">
+        <f>B23*$J$3+B23</f>
         <v>5.568147728934572</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <f>ROUND(B23*$J$3+B23,2)</f>
+        <v>5.57</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>5.5699999999999994</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>5.56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>5</v>
       </c>
@@ -692,7 +964,7 @@
         <v>2.1499999999999998E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>26399</v>
       </c>
@@ -700,153 +972,222 @@
         <f>ROUNDUP(A29*$D$28+A29,-2)</f>
         <v>27000</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C29">
+        <f>ROUNDUP(A29*$D$28+A29,-1)</f>
+        <v>26970</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>23379</v>
       </c>
       <c r="B30" s="4">
-        <f t="shared" ref="B30:B45" si="1">ROUNDUP(A30*$D$28+A30,-2)</f>
+        <f t="shared" ref="B30:B45" si="2">ROUNDUP(A30*$D$28+A30,-2)</f>
         <v>23900</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C30">
+        <f t="shared" ref="C30:C45" si="3">ROUNDUP(A30*$D$28+A30,-1)</f>
+        <v>23890</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>36572</v>
       </c>
       <c r="B31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37400</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C31">
+        <f t="shared" si="3"/>
+        <v>37360</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>38054</v>
       </c>
       <c r="B32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38900</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C32">
+        <f t="shared" si="3"/>
+        <v>38880</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>27146</v>
       </c>
       <c r="B33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27800</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C33">
+        <f t="shared" si="3"/>
+        <v>27730</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>24783</v>
       </c>
       <c r="B34" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25400</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C34">
+        <f t="shared" si="3"/>
+        <v>25320</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>34284</v>
       </c>
       <c r="B35" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35100</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C35">
+        <f t="shared" si="3"/>
+        <v>35030</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>20173</v>
       </c>
       <c r="B36" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20700</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C36">
+        <f t="shared" si="3"/>
+        <v>20610</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>21070</v>
       </c>
       <c r="B37" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>21600</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C37">
+        <f t="shared" si="3"/>
+        <v>21530</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>33125</v>
       </c>
       <c r="B38" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>33900</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C38">
+        <f t="shared" si="3"/>
+        <v>33840</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>24784</v>
       </c>
       <c r="B39" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>25400</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C39">
+        <f t="shared" si="3"/>
+        <v>25320</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>33558</v>
       </c>
       <c r="B40" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>34300</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C40">
+        <f t="shared" si="3"/>
+        <v>34280</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>36311</v>
       </c>
       <c r="B41" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37100</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C41">
+        <f t="shared" si="3"/>
+        <v>37100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>27459</v>
       </c>
       <c r="B42" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28100</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C42">
+        <f t="shared" si="3"/>
+        <v>28050</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>22221</v>
       </c>
       <c r="B43" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>22700</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C43">
+        <f t="shared" si="3"/>
+        <v>22700</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>30905</v>
       </c>
       <c r="B44" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31600</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C44">
+        <f t="shared" si="3"/>
+        <v>31570</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>27607</v>
       </c>
       <c r="B45" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>28300</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="3"/>
+        <v>28210</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>